--- a/It201819/Calculation/otherSalary.xlsx
+++ b/It201819/Calculation/otherSalary.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -765,7 +765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -837,7 +837,7 @@
   <autoFilter ref="A1:E22">
     <filterColumn colId="1">
       <filters>
-        <filter val="Naveen Kumar Barak"/>
+        <filter val="Prasanta Ghosh"/>
       </filters>
     </filterColumn>
   </autoFilter>
